--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43650,6 +43650,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43687,6 +43687,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43724,6 +43724,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43761,6 +43761,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43798,6 +43798,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43835,6 +43835,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43872,6 +43872,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43907,6 +43907,43 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43944,6 +43944,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43981,6 +43981,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44016,6 +44016,41 @@
         <v>3900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>14000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44051,6 +44051,78 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44123,6 +44123,76 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>6800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44193,6 +44193,41 @@
         <v>6800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44228,6 +44228,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44265,6 +44265,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44300,6 +44300,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44335,6 +44335,80 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44409,6 +44409,43 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44446,6 +44446,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2326"/>
+  <dimension ref="A1:I2327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82736,6 +82736,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2327" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2327" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2327"/>
+  <dimension ref="A1:I2328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82771,6 +82771,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2328" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2328" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2328"/>
+  <dimension ref="A1:I2329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82808,6 +82808,41 @@
         </is>
       </c>
     </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2329" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2329" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2329"/>
+  <dimension ref="A1:I2330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82843,6 +82843,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2330" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2330"/>
+  <dimension ref="A1:I2331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82880,6 +82880,43 @@
         </is>
       </c>
     </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2331"/>
+  <dimension ref="A1:I2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82917,6 +82917,43 @@
         </is>
       </c>
     </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2332" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2332"/>
+  <dimension ref="A1:I2333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82954,6 +82954,43 @@
         </is>
       </c>
     </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2333" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2333"/>
+  <dimension ref="A1:I2334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82991,6 +82991,43 @@
         </is>
       </c>
     </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2334" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2334"/>
+  <dimension ref="A1:I2335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83028,6 +83028,43 @@
         </is>
       </c>
     </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2335" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2335"/>
+  <dimension ref="A1:I2336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83065,6 +83065,43 @@
         </is>
       </c>
     </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2336" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2336"/>
+  <dimension ref="A1:I2337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83102,6 +83102,43 @@
         </is>
       </c>
     </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2337" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2337"/>
+  <dimension ref="A1:I2338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83139,6 +83139,43 @@
         </is>
       </c>
     </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2338" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2338"/>
+  <dimension ref="A1:I2339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83176,6 +83176,43 @@
         </is>
       </c>
     </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2339" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2339"/>
+  <dimension ref="A1:I2340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83213,6 +83213,43 @@
         </is>
       </c>
     </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2340" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2340" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8117.xlsx
+++ b/data/8117.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2340"/>
+  <dimension ref="A1:I2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83250,6 +83250,41 @@
         </is>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>POLY</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2341" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
